--- a/medicine/Handicap/Inhibiteur_de_la_recapture_de_la_sérotonine_et_de_la_noradrénaline/Inhibiteur_de_la_recapture_de_la_sérotonine_et_de_la_noradrénaline.xlsx
+++ b/medicine/Handicap/Inhibiteur_de_la_recapture_de_la_sérotonine_et_de_la_noradrénaline/Inhibiteur_de_la_recapture_de_la_sérotonine_et_de_la_noradrénaline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Inhibiteur_de_la_recapture_de_la_s%C3%A9rotonine_et_de_la_noradr%C3%A9naline</t>
+          <t>Inhibiteur_de_la_recapture_de_la_sérotonine_et_de_la_noradrénaline</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les inhibiteurs de la recapture (ou du recaptage) de la sérotonine-noradrénaline (IRSNa, IRSN ou SNRI en anglais pour Serotonin-norepinephrine reuptake inhibitor) sont des psychotropes qui inhiberaient de façon sélective la recapture de la noradrénaline et de la sérotonine. Cette inhibition entraîne une augmentation de la concentration synaptique de ces neuromédiateurs. Dans un délai de quelques semaines, on[Qui ?] pense qu'une diminution adaptative ("down regulation") des récepteurs postsynaptiques 5HT2A à la sérotonine et β postsynaptiques à la noradrénaline, récepteurs qui seraient en nombre trop important chez les sujets atteints de dépression[réf. souhaitée], se produit.
-Cette hypothèse est cependant mise en doute par le fait qu'une étude met en évidence une élévation des récepteurs 5HT2A et que, dans les études où une diminution de ces récepteurs est observée, il n'y a pas de corrélation entre la réponse thérapeutique et la diminution des récepteurs 5HT2A : la diminution a été observée tant chez les patients qui répondaient que ceux qui ne répondaient pas à l'antidépresseur[1]. Les antidépresseurs sont basés sur l'hypothèse monoaminergique (hypothèse d'un déséquilibre chimique dans le cerveau).
+Cette hypothèse est cependant mise en doute par le fait qu'une étude met en évidence une élévation des récepteurs 5HT2A et que, dans les études où une diminution de ces récepteurs est observée, il n'y a pas de corrélation entre la réponse thérapeutique et la diminution des récepteurs 5HT2A : la diminution a été observée tant chez les patients qui répondaient que ceux qui ne répondaient pas à l'antidépresseur. Les antidépresseurs sont basés sur l'hypothèse monoaminergique (hypothèse d'un déséquilibre chimique dans le cerveau).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Inhibiteur_de_la_recapture_de_la_s%C3%A9rotonine_et_de_la_noradr%C3%A9naline</t>
+          <t>Inhibiteur_de_la_recapture_de_la_sérotonine_et_de_la_noradrénaline</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Molécules et noms commerciaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>venlafaxine : Effexor
 milnacipran : Ixel, Savella
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Inhibiteur_de_la_recapture_de_la_s%C3%A9rotonine_et_de_la_noradr%C3%A9naline</t>
+          <t>Inhibiteur_de_la_recapture_de_la_sérotonine_et_de_la_noradrénaline</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Indications thérapeutiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">traitement des épisodes dépressifs majeurs chez l'adulte
 la venlafaxine pourra être utilisées dans la prévention des récidives dépressives chez le patient unipolaire
@@ -558,7 +574,7 @@
 le milnacipran est indiqué aux États-Unis pour le traitement de la fibromyalgie
 Certains médecins prescrivent d'ailleurs la venlafaxine pour traiter certains symptômes de la ménopause comme les bouffées de chaleur, en traitement prophylactique des migraines ou en traitement des affections douloureuses chroniques comme la neuropathie diabétique et la fibromyalgie.
 la venlafaxine est utilisée pour pallier les cataplexies de certains narcoleptiques.
-Dans le cas où il existe des dysfonctions sexuelles (désir sexuel hypoactif, anorgasmie, trouble de l'excitation, etc.) avant l'apparition d'un état dépressif, une utilisation d'un IRSNa sera déconseillée car cela pourrait avoir un effet contre-productif[2],[3].
+Dans le cas où il existe des dysfonctions sexuelles (désir sexuel hypoactif, anorgasmie, trouble de l'excitation, etc.) avant l'apparition d'un état dépressif, une utilisation d'un IRSNa sera déconseillée car cela pourrait avoir un effet contre-productif,.
 </t>
         </is>
       </c>
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Inhibiteur_de_la_recapture_de_la_s%C3%A9rotonine_et_de_la_noradr%C3%A9naline</t>
+          <t>Inhibiteur_de_la_recapture_de_la_sérotonine_et_de_la_noradrénaline</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,7 +603,9 @@
           <t>Effets indésirables</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cette famille d'antidépresseurs sera mieux tolérée que celle des tricycliques, mais sera moins efficace. Les effets secondaires principaux sont identiques à ceux des inhibiteurs sélectifs de recapture de sérotonine (ISRS) :
 effets anticholinergiques : sécheresse buccale et rétention urinaire.
@@ -604,7 +622,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Inhibiteur_de_la_recapture_de_la_s%C3%A9rotonine_et_de_la_noradr%C3%A9naline</t>
+          <t>Inhibiteur_de_la_recapture_de_la_sérotonine_et_de_la_noradrénaline</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -622,7 +640,9 @@
           <t>Contre-indications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces molécules sont contre indiquées en cas:
 d'hypertrophie bénigne de la prostate
@@ -639,7 +659,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Inhibiteur_de_la_recapture_de_la_s%C3%A9rotonine_et_de_la_noradr%C3%A9naline</t>
+          <t>Inhibiteur_de_la_recapture_de_la_sérotonine_et_de_la_noradrénaline</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -657,11 +677,13 @@
           <t>Interactions médicamenteuses</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Contre-indication absolue avec les IMAO non spécifiques (iproniazide) et avec les triptans.
 Associations déconseillées avec les IMAO sélectifs A, l'adrénaline et la noradrénaline.
-Peut être combiné avec précautions à un ISRS ou un autre IRSNa[4].</t>
+Peut être combiné avec précautions à un ISRS ou un autre IRSNa.</t>
         </is>
       </c>
     </row>
@@ -671,7 +693,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Inhibiteur_de_la_recapture_de_la_s%C3%A9rotonine_et_de_la_noradr%C3%A9naline</t>
+          <t>Inhibiteur_de_la_recapture_de_la_sérotonine_et_de_la_noradrénaline</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -689,7 +711,9 @@
           <t>Syndrome de discontinuation associé aux antidépresseurs</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arrêt ou la réduction marquée de la dose d'un traitement IRSNa peut provoquer un syndrome de discontinuation associé aux antidépresseurs.
 </t>
